--- a/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7378387752198976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5254079378494828</v>
+        <v>0.5254079378494829</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6732359671818724</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6327495027429013</v>
+        <v>0.6301133349212372</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5351454739455309</v>
+        <v>0.532496226123819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.70120407695693</v>
+        <v>0.7019795158782308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.48397212223028</v>
+        <v>0.4813127325524803</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6380373244244403</v>
+        <v>0.639093999554369</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5942733559215609</v>
+        <v>0.5958887582037984</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7454476006219358</v>
+        <v>0.7479499574290887</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5276589832794472</v>
+        <v>0.5280565616674003</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6432033108775072</v>
+        <v>0.6428516205031355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5749021520075766</v>
+        <v>0.5759196326472661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.734606443508815</v>
+        <v>0.7343176151263129</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.516245138294017</v>
+        <v>0.514983215049849</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7052731033954719</v>
+        <v>0.7036088959803234</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6092821150775527</v>
+        <v>0.6111451133388147</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7725244576972377</v>
+        <v>0.771366870630867</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.566274408958768</v>
+        <v>0.5683581315412878</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7087723470174441</v>
+        <v>0.708460984920402</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6709916053022009</v>
+        <v>0.6703852647503558</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8103248509776955</v>
+        <v>0.8106539647417353</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5921708871332814</v>
+        <v>0.5868777345120766</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6940480057758174</v>
+        <v>0.6951904478275117</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.628695281919236</v>
+        <v>0.6273693160241479</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7813906892309072</v>
+        <v>0.7801382505816012</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5687835962438651</v>
+        <v>0.5676499096593808</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5692706621444225</v>
+        <v>0.5679059966851833</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5883785129391957</v>
+        <v>0.5869817546137556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7051227147770873</v>
+        <v>0.7094256270394261</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5452668796581639</v>
+        <v>0.5456670907125237</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5914455091426808</v>
+        <v>0.589643713930594</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.645220444075038</v>
+        <v>0.6470793779521085</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7410327809318183</v>
+        <v>0.7442198195125623</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.595870011619038</v>
+        <v>0.5965599013186204</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5910082085314419</v>
+        <v>0.592177453650055</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6263585589719248</v>
+        <v>0.6263345107568563</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7344043524832032</v>
+        <v>0.7330447317904651</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5806766337204277</v>
+        <v>0.5799650247123809</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6342607924271858</v>
+        <v>0.6335240084901049</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6512758164807559</v>
+        <v>0.6512983579913048</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7616645126290661</v>
+        <v>0.7666650255542639</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6150314878175323</v>
+        <v>0.6161619763665831</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6545084153760466</v>
+        <v>0.655466379176931</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7068938678941972</v>
+        <v>0.706966484419688</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7971453885419821</v>
+        <v>0.7969299021068531</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6490802481696528</v>
+        <v>0.6523967268389179</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6360996616197611</v>
+        <v>0.6342141173384154</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6712814775137524</v>
+        <v>0.6715791991536352</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7730077331668205</v>
+        <v>0.7717619754874473</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6268661222235095</v>
+        <v>0.6245627173951747</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.8205779115282474</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5811260812252332</v>
+        <v>0.5811260812252333</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.574147038637149</v>
@@ -969,7 +969,7 @@
         <v>0.8144641727055703</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5932112027442372</v>
+        <v>0.5932112027442373</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5302939477759389</v>
+        <v>0.5227198882119277</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.558097984396881</v>
+        <v>0.558047838751854</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7768422527758829</v>
+        <v>0.7789109649747354</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5661514952446862</v>
+        <v>0.5621274434161998</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5424641979972508</v>
+        <v>0.5446862440246317</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5856326320683526</v>
+        <v>0.5836096517722725</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7970238659799052</v>
+        <v>0.7938379389547706</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5477663185891316</v>
+        <v>0.5463406392666059</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5494788140243879</v>
+        <v>0.5482239449771199</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5791144593864473</v>
+        <v>0.5809249857136464</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7929582972628344</v>
+        <v>0.7938069765612101</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.564678866792674</v>
+        <v>0.5661434187550088</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.605022398378284</v>
+        <v>0.6033177979782662</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6322401758173249</v>
+        <v>0.629495314214339</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8365637467943314</v>
+        <v>0.8371653934733357</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6466952677801716</v>
+        <v>0.6438369848948642</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6205742109198805</v>
+        <v>0.6210887385751023</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6556012667021284</v>
+        <v>0.6578947787944451</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8489386694869927</v>
+        <v>0.8470369735535301</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6146103211674983</v>
+        <v>0.6132499698159558</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6037980071111525</v>
+        <v>0.6006567699960041</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6327978969181844</v>
+        <v>0.6342147690042094</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8324627599709349</v>
+        <v>0.8333653439730119</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6166994511025848</v>
+        <v>0.6186714165648304</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.6919710887964675</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5589828687673353</v>
+        <v>0.5589828687673354</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5630127819792768</v>
+        <v>0.563007485944003</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6450368242426203</v>
+        <v>0.6429716055922343</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6577760371794025</v>
+        <v>0.6574649838018264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5259913453447475</v>
+        <v>0.5255244124965579</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5516873889770312</v>
+        <v>0.5524411056223043</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6895132162730651</v>
+        <v>0.6864036970102489</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6634417422370347</v>
+        <v>0.6658548110096763</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5298444889660393</v>
+        <v>0.5310321432221965</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5663077729559262</v>
+        <v>0.5659945037423767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6737140030994578</v>
+        <v>0.6766165040317274</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6701622351226216</v>
+        <v>0.6707504479596624</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5359561692692744</v>
+        <v>0.5371697442220909</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6252566769998676</v>
+        <v>0.6242453359765003</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7056281501038905</v>
+        <v>0.7038333267723428</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7188559504809983</v>
+        <v>0.7160096077523905</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5949966149647278</v>
+        <v>0.594444144759663</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6140111645567932</v>
+        <v>0.6112016631878288</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7451855320933106</v>
+        <v>0.7429650311186631</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7229423037856028</v>
+        <v>0.7253557993768459</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5831479804169973</v>
+        <v>0.5847283144180392</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6098015307461672</v>
+        <v>0.610515536283801</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7171560518150588</v>
+        <v>0.7191576423153356</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7115245333748916</v>
+        <v>0.7125131265815065</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5804225337421833</v>
+        <v>0.57987834892475</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7394009288049429</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5699882276435326</v>
+        <v>0.5699882276435325</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6124500715253164</v>
@@ -1241,7 +1241,7 @@
         <v>0.7503946286360461</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.57610117350936</v>
+        <v>0.5761011735093599</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5895959911590974</v>
+        <v>0.5892186302267477</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6029960460006787</v>
+        <v>0.6018979610086747</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7252579731361181</v>
+        <v>0.722735961558566</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5509378898548398</v>
+        <v>0.5483933131303629</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5966757586258876</v>
+        <v>0.596819636909563</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6526731003065218</v>
+        <v>0.6525502219221899</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7453501026931323</v>
+        <v>0.7471208737010667</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5669832489508545</v>
+        <v>0.5682126630211883</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5969502185631814</v>
+        <v>0.5974177738967191</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6331310428957156</v>
+        <v>0.6320030170039668</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7392249884458382</v>
+        <v>0.7391325362013541</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5643995916345295</v>
+        <v>0.5645825786395119</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6239272982458312</v>
+        <v>0.6245011751578173</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6357393794090347</v>
+        <v>0.6371852831719508</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7555973161638432</v>
+        <v>0.7550769432122362</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.587213656398439</v>
+        <v>0.5872145850178613</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.63018528379203</v>
+        <v>0.6302650562343636</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6861527292827271</v>
+        <v>0.6842175634522175</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7748644464845192</v>
+        <v>0.7755165052232785</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5961874028443134</v>
+        <v>0.5965986044490023</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.621649986495961</v>
+        <v>0.6216204807606376</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6557008300055926</v>
+        <v>0.6559980911274189</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.761115136322835</v>
+        <v>0.7620546231573023</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5891579818358557</v>
+        <v>0.5875899590350148</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>439136</v>
+        <v>437306</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>373878</v>
+        <v>372027</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>471767</v>
+        <v>472289</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>330666</v>
+        <v>328849</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>438559</v>
+        <v>439285</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>410851</v>
+        <v>411968</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>498676</v>
+        <v>500350</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>382888</v>
+        <v>383176</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>888500</v>
+        <v>888015</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>799113</v>
+        <v>800528</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>985664</v>
+        <v>985277</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>727321</v>
+        <v>725543</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>489468</v>
+        <v>488313</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>425674</v>
+        <v>426975</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>519751</v>
+        <v>518973</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>386897</v>
+        <v>388321</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>487179</v>
+        <v>486965</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>463891</v>
+        <v>463472</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>542077</v>
+        <v>542297</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>429700</v>
+        <v>425859</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>958736</v>
+        <v>960314</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>873886</v>
+        <v>872043</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1048437</v>
+        <v>1046757</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>801341</v>
+        <v>799744</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>546907</v>
+        <v>545596</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>596528</v>
+        <v>595112</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>719454</v>
+        <v>723844</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>567079</v>
+        <v>567495</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>572752</v>
+        <v>571007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>661901</v>
+        <v>663808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>769022</v>
+        <v>772330</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>632015</v>
+        <v>632747</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1140119</v>
+        <v>1142375</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1277585</v>
+        <v>1277536</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1511475</v>
+        <v>1508676</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1219805</v>
+        <v>1218310</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>609344</v>
+        <v>608637</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>660297</v>
+        <v>660319</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>777145</v>
+        <v>782247</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>639634</v>
+        <v>640810</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>633821</v>
+        <v>634749</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>725169</v>
+        <v>725244</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>827254</v>
+        <v>827031</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>688453</v>
+        <v>691970</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1227106</v>
+        <v>1223468</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1369215</v>
+        <v>1369822</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1590924</v>
+        <v>1588360</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1316833</v>
+        <v>1311995</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>358881</v>
+        <v>353755</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>418788</v>
+        <v>418751</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>586065</v>
+        <v>587626</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>453219</v>
+        <v>449998</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>370959</v>
+        <v>372479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>453884</v>
+        <v>452316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>619901</v>
+        <v>617423</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>442656</v>
+        <v>441504</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>747620</v>
+        <v>745913</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>883390</v>
+        <v>886152</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1214963</v>
+        <v>1216263</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>908363</v>
+        <v>910719</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>409454</v>
+        <v>408300</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>474424</v>
+        <v>472364</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>631120</v>
+        <v>631574</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>517696</v>
+        <v>515408</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>424374</v>
+        <v>424726</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>508112</v>
+        <v>509890</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>660279</v>
+        <v>658800</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>496673</v>
+        <v>495574</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>821527</v>
+        <v>817253</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>965280</v>
+        <v>967441</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1275491</v>
+        <v>1276874</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>992046</v>
+        <v>995218</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>529537</v>
+        <v>529532</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>608185</v>
+        <v>606238</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>612709</v>
+        <v>612419</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>515410</v>
+        <v>514952</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>572448</v>
+        <v>573231</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>716924</v>
+        <v>713691</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>690906</v>
+        <v>693419</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>585031</v>
+        <v>586342</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1120255</v>
+        <v>1119635</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1335720</v>
+        <v>1341475</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1322151</v>
+        <v>1323311</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1116953</v>
+        <v>1119482</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>588080</v>
+        <v>587128</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>665315</v>
+        <v>663623</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>669604</v>
+        <v>666952</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>583027</v>
+        <v>582486</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>637118</v>
+        <v>634202</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>774810</v>
+        <v>772501</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>752870</v>
+        <v>755383</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>643886</v>
+        <v>645631</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1206293</v>
+        <v>1207705</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1421849</v>
+        <v>1425818</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1403754</v>
+        <v>1405704</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1209623</v>
+        <v>1208489</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1929173</v>
+        <v>1927939</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2053656</v>
+        <v>2049916</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2450664</v>
+        <v>2442142</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1930290</v>
+        <v>1921374</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2015106</v>
+        <v>2015592</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2305234</v>
+        <v>2304800</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2628031</v>
+        <v>2634274</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2097022</v>
+        <v>2101569</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3969270</v>
+        <v>3972379</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4392499</v>
+        <v>4384673</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5104294</v>
+        <v>5103655</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4064920</v>
+        <v>4066238</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2041506</v>
+        <v>2043384</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2165171</v>
+        <v>2170096</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2553181</v>
+        <v>2551423</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2057387</v>
+        <v>2057390</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2128276</v>
+        <v>2128545</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2423483</v>
+        <v>2416648</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2732095</v>
+        <v>2734394</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2205035</v>
+        <v>2206556</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4133505</v>
+        <v>4133309</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4549083</v>
+        <v>4551145</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5255444</v>
+        <v>5261931</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4243235</v>
+        <v>4231942</v>
       </c>
     </row>
     <row r="24">
